--- a/medicine/Enfance/Charles_Soule/Charles_Soule.xlsx
+++ b/medicine/Enfance/Charles_Soule/Charles_Soule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Soule, né à Milwaukee dans le Wisconsin, est un scénariste de comics et romancier américain de science-fiction.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,15 +553,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Série La Haute République
-Phase I : La Lumière des Jedi
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série La Haute République</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phase I : La Lumière des Jedi
 Roman
 La Lumière des Jedi, Pocket, coll. « Star Wars » no 178, 2021 ((en) Light of the Jedi, 2021), trad. Lucile Galliot et Sandy Julien, 512 p.  (ISBN 978-2-266-31789-4)
 Comics
-(en) Eye of the Storm, 2022En deux volumes
-Romans indépendants
-(en) The Oracle Year, 2018
+(en) Eye of the Storm, 2022En deux volumes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Soule</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Soule</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Oracle Year, 2018
 (en) Anyone, 2019
 (en) The Endless Vessel, 2013</t>
         </is>
